--- a/backlog_2.xlsx
+++ b/backlog_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE0A67-8E05-46C2-8CA8-21A7EE8ADA0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CD31E-1D9D-4FC3-88E7-1EEEF7F99E0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,6 +607,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1763,7 +1766,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,6 +1956,9 @@
       <c r="E7" s="15">
         <v>1</v>
       </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
@@ -2273,6 +2279,9 @@
       <c r="D28" s="14">
         <v>0</v>
       </c>
+      <c r="E28" s="13">
+        <v>16</v>
+      </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>

--- a/backlog_2.xlsx
+++ b/backlog_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taak OGP\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CD31E-1D9D-4FC3-88E7-1EEEF7F99E0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A9556-AD9E-466C-B6EE-FC89D94D72F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -446,8 +437,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,7 +461,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1467,7 +1458,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1766,7 +1757,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,10 +1925,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="13">
         <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1951,7 +1945,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
@@ -1978,12 +1972,14 @@
         <v>17</v>
       </c>
       <c r="D9" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="42">
         <v>1</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>

--- a/backlog_2.xlsx
+++ b/backlog_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taak OGP\inf-ogp1-20-21-team-practica-groep23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A9556-AD9E-466C-B6EE-FC89D94D72F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E94B11-2BC6-417B-83E9-65F3BC09C97B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Task Description</t>
   </si>
@@ -109,6 +118,9 @@
   </si>
   <si>
     <t>Fix victory</t>
+  </si>
+  <si>
+    <t>1-&gt;0.5</t>
   </si>
 </sst>
 </file>
@@ -437,8 +449,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,7 +473,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -599,7 +611,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,7 +1470,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1757,7 +1769,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,12 +2027,14 @@
         <v>18</v>
       </c>
       <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="38">
         <v>0</v>
       </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -2044,12 +2058,14 @@
         <v>18</v>
       </c>
       <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="38">
         <v>0</v>
       </c>
-      <c r="E12" s="19">
-        <v>1</v>
-      </c>
-      <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -2073,12 +2089,14 @@
         <v>18</v>
       </c>
       <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="38">
         <v>0</v>
       </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -2101,12 +2119,14 @@
         <v>18</v>
       </c>
       <c r="D14" s="22">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="46">
         <v>0</v>
       </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="46"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -2276,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>

--- a/backlog_2.xlsx
+++ b/backlog_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E94B11-2BC6-417B-83E9-65F3BC09C97B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85774885-0679-45E9-BD62-9E50C263C05F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -72,12 +72,6 @@
     <t>Mijlpaal 8</t>
   </si>
   <si>
-    <t>Mijlpaal 9</t>
-  </si>
-  <si>
-    <t>Mijlpaal 10</t>
-  </si>
-  <si>
     <t>TOTAAL</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>1-&gt;0.5</t>
+  </si>
+  <si>
+    <t>Mijlpaal 4</t>
+  </si>
+  <si>
+    <t>Mijlpaal 5</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1769,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,10 +1931,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
@@ -1951,10 +1951,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="9" spans="1:27" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="41">
         <v>1</v>
@@ -2021,16 +2021,16 @@
     <row r="11" spans="1:27" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="37">
         <v>1</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="38">
         <v>0</v>
@@ -2052,16 +2052,16 @@
     <row r="12" spans="1:27" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="37">
         <v>1</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="38">
         <v>0</v>
@@ -2083,16 +2083,16 @@
     <row r="13" spans="1:27" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="37">
         <v>1</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="38">
         <v>0</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="14" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="22">
         <v>1</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="46">
         <v>0</v>
@@ -2145,7 +2145,7 @@
     <row r="15" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="47">
         <v>0</v>
@@ -2170,7 +2170,7 @@
     <row r="17" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="18" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="33">
         <v>0</v>
@@ -2197,7 +2197,7 @@
     <row r="19" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="37">
         <v>0</v>
@@ -2222,24 +2222,26 @@
     </row>
     <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="19">
         <v>1</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
       <c r="T21" s="19"/>
     </row>
     <row r="22" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -2255,7 +2257,7 @@
     <row r="24" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -2281,7 +2283,7 @@
     <row r="27" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
@@ -2290,7 +2292,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="14">
         <v>0</v>

--- a/backlog_2.xlsx
+++ b/backlog_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85774885-0679-45E9-BD62-9E50C263C05F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBF9DB0-BB94-48E1-A5D7-FFA5D4EB6F37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -612,6 +612,9 @@
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,7 +1772,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2303,9 @@
       <c r="E28" s="13">
         <v>14</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="13">
+        <v>7</v>
+      </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>

--- a/backlog_2.xlsx
+++ b/backlog_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taak OGP\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBF9DB0-BB94-48E1-A5D7-FFA5D4EB6F37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2452C5-3576-4EBA-AD1C-4C980516BF55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Task Description</t>
   </si>
@@ -121,6 +112,21 @@
   </si>
   <si>
     <t>Mijlpaal 5</t>
+  </si>
+  <si>
+    <t>3-&gt;5</t>
+  </si>
+  <si>
+    <t>3-&gt;1</t>
+  </si>
+  <si>
+    <t>reimplement enpassent</t>
+  </si>
+  <si>
+    <t>test win conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean up code </t>
   </si>
 </sst>
 </file>
@@ -449,8 +455,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,7 +479,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1473,7 +1479,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1772,7 +1778,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,12 +2169,14 @@
         <v>15</v>
       </c>
       <c r="D16" s="47">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="13">
         <v>0</v>
       </c>
-      <c r="E16" s="13">
-        <v>3</v>
-      </c>
-      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
@@ -2189,12 +2197,14 @@
         <v>15</v>
       </c>
       <c r="D18" s="33">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="21">
         <v>0</v>
       </c>
-      <c r="E18" s="21">
-        <v>3</v>
-      </c>
-      <c r="F18" s="21"/>
       <c r="T18" s="21"/>
     </row>
     <row r="19" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -2252,8 +2262,17 @@
       <c r="T22" s="32"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="D23" s="14">
         <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
       </c>
       <c r="F23" s="13"/>
     </row>
@@ -2268,16 +2287,32 @@
       <c r="T24" s="32"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="D25" s="14">
         <v>0</v>
       </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="D26" s="14">
         <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>

--- a/backlog_2.xlsx
+++ b/backlog_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taak OGP\inf-ogp1-20-21-team-practica-groep23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2452C5-3576-4EBA-AD1C-4C980516BF55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC06B6-D130-4FC5-A646-5B415FEFDB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="3945" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -102,9 +111,6 @@
     <t>Fix print</t>
   </si>
   <si>
-    <t>Fix victory</t>
-  </si>
-  <si>
     <t>1-&gt;0.5</t>
   </si>
   <si>
@@ -120,13 +126,16 @@
     <t>3-&gt;1</t>
   </si>
   <si>
-    <t>reimplement enpassent</t>
-  </si>
-  <si>
-    <t>test win conditions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clean up code </t>
+  </si>
+  <si>
+    <t>Reimplement enpassent</t>
+  </si>
+  <si>
+    <t>Test win condities</t>
+  </si>
+  <si>
+    <t>Implementeer king</t>
   </si>
 </sst>
 </file>
@@ -455,8 +464,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,7 +488,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -617,10 +626,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,7 +1488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1777,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="38">
         <v>0</v>
@@ -2070,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="38">
         <v>0</v>
@@ -2101,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="38">
         <v>0</v>
@@ -2131,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="46">
         <v>0</v>
@@ -2154,7 +2163,7 @@
     <row r="15" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -2172,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="13">
         <v>0</v>
@@ -2181,7 +2190,7 @@
     <row r="17" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -2200,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="21">
         <v>0</v>
@@ -2225,17 +2234,19 @@
         <v>16</v>
       </c>
       <c r="D20" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="19">
         <v>2</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
       <c r="T20" s="19"/>
     </row>
     <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>16</v>
@@ -2274,36 +2285,40 @@
       <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="T24" s="32"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="T25" s="32"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>15</v>
@@ -2314,7 +2329,9 @@
       <c r="E26" s="13">
         <v>1</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
@@ -2336,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F28" s="13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>

--- a/backlog_2.xlsx
+++ b/backlog_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC06B6-D130-4FC5-A646-5B415FEFDB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AD20CA-7AB6-4AD8-92E7-E667CDAC403F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -630,6 +630,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,13 +2286,16 @@
         <v>15</v>
       </c>
       <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
         <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2297,13 +2306,16 @@
         <v>16</v>
       </c>
       <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
         <v>0</v>
-      </c>
-      <c r="E24" s="13">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -2324,16 +2336,20 @@
         <v>15</v>
       </c>
       <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
         <v>0</v>
       </c>
-      <c r="E26" s="13">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
@@ -2350,7 +2366,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="13">
         <v>17</v>
@@ -2358,8 +2374,12 @@
       <c r="F28" s="13">
         <v>3</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
       <c r="I28" s="13"/>
     </row>
   </sheetData>
